--- a/biology/Histoire de la zoologie et de la botanique/Luigi_Aloysius_Colla/Luigi_Aloysius_Colla.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Luigi_Aloysius_Colla/Luigi_Aloysius_Colla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luigi Aloysius Colla est un homme politique et botaniste italien, né le 30 avril 1766 à Turin et décédé le 22 décembre 1848 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avocat de profession, il a été membre du gouvernement provisoire de Savoie de décembre 1798 à avril 1799. Il est devenu sénateur du royaume de Piémont-Sardaigne en avril 1848 peu avant sa mort.
 En 1820, Colla décrit deux espèces, Musa balbisiana et  Musa acuminata, qui sont la base génétique de la quasi-totalité des variétés de bananes cultivées.
@@ -544,7 +558,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'antolegista botanico - Turin - Volume 1 : 1811 (Ouvrage numérisé), Volume 5 : 1814 (Ouvrage numérisé), Volume 6 : 1814 (Ouvrage numérisé)
 Memoria sul genere Musa e monografia del medesimo - Turin, 1820 (Ouvrage numérisé)
@@ -584,7 +600,9 @@
           <t>Dédicaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Augustin Pyrame de Candolle lui a dédié en 1824 un genre de la famille des Fabacées : Collaea. Kurt Sprengel, l'année suivante, a créé aussi un genre du même nom, de la famille des Astéracées, en dédicace à Luigi Colla, mais illégal au regard de la botanique.
 Plusieurs espèces lui ont aussi été dédiées dont :
